--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H2">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I2">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J2">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N2">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O2">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P2">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q2">
-        <v>133.959936113104</v>
+        <v>189.247791671648</v>
       </c>
       <c r="R2">
-        <v>133.959936113104</v>
+        <v>1703.230125044832</v>
       </c>
       <c r="S2">
-        <v>0.1094650956459007</v>
+        <v>0.105859877059225</v>
       </c>
       <c r="T2">
-        <v>0.1094650956459007</v>
+        <v>0.1282020131779943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H3">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I3">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J3">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N3">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P3">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q3">
-        <v>353.7217071016972</v>
+        <v>457.562948408576</v>
       </c>
       <c r="R3">
-        <v>353.7217071016972</v>
+        <v>4118.066535677183</v>
       </c>
       <c r="S3">
-        <v>0.2890429901909377</v>
+        <v>0.2559478080961141</v>
       </c>
       <c r="T3">
-        <v>0.2890429901909377</v>
+        <v>0.3099665820323881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H4">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I4">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J4">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N4">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O4">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P4">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q4">
-        <v>72.62197077700378</v>
+        <v>102.4519188210667</v>
       </c>
       <c r="R4">
-        <v>72.62197077700378</v>
+        <v>922.0672693896</v>
       </c>
       <c r="S4">
-        <v>0.05934289913654934</v>
+        <v>0.05730871380363182</v>
       </c>
       <c r="T4">
-        <v>0.05934289913654934</v>
+        <v>0.06940393930513129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H5">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I5">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J5">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N5">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O5">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P5">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q5">
-        <v>93.25440543615807</v>
+        <v>115.8370226246933</v>
       </c>
       <c r="R5">
-        <v>93.25440543615807</v>
+        <v>1042.53320362224</v>
       </c>
       <c r="S5">
-        <v>0.07620265212616867</v>
+        <v>0.06479596335386877</v>
       </c>
       <c r="T5">
-        <v>0.07620265212616867</v>
+        <v>0.07847140180529449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H6">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I6">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J6">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.674741494122721</v>
+        <v>10.0078485</v>
       </c>
       <c r="N6">
-        <v>9.674741494122721</v>
+        <v>20.015697</v>
       </c>
       <c r="O6">
-        <v>0.2171083537640522</v>
+        <v>0.2106019794549903</v>
       </c>
       <c r="P6">
-        <v>0.2171083537640522</v>
+        <v>0.1510017415254648</v>
       </c>
       <c r="Q6">
-        <v>181.2420740079476</v>
+        <v>230.798279972208</v>
       </c>
       <c r="R6">
-        <v>181.2420740079476</v>
+        <v>1384.789679833248</v>
       </c>
       <c r="S6">
-        <v>0.148101600687466</v>
+        <v>0.1291020483120323</v>
       </c>
       <c r="T6">
-        <v>0.148101600687466</v>
+        <v>0.1042330229909828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H7">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J7">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N7">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O7">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P7">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q7">
-        <v>12.35347352043345</v>
+        <v>15.80513698121334</v>
       </c>
       <c r="R7">
-        <v>12.35347352043345</v>
+        <v>142.24623283092</v>
       </c>
       <c r="S7">
-        <v>0.01009461634358804</v>
+        <v>0.008840947854432017</v>
       </c>
       <c r="T7">
-        <v>0.01009461634358804</v>
+        <v>0.01070686406244115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H8">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J8">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N8">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P8">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q8">
-        <v>32.61939255176974</v>
+        <v>38.21362993589334</v>
       </c>
       <c r="R8">
-        <v>32.61939255176974</v>
+        <v>343.9226694230401</v>
       </c>
       <c r="S8">
-        <v>0.02665487181612181</v>
+        <v>0.0213756267973743</v>
       </c>
       <c r="T8">
-        <v>0.02665487181612181</v>
+        <v>0.02588703543299704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H9">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J9">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N9">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O9">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P9">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q9">
-        <v>6.697029119496947</v>
+        <v>8.556330283444446</v>
       </c>
       <c r="R9">
-        <v>6.697029119496947</v>
+        <v>77.00697255100002</v>
       </c>
       <c r="S9">
-        <v>0.005472464039473397</v>
+        <v>0.004786169835234331</v>
       </c>
       <c r="T9">
-        <v>0.005472464039473397</v>
+        <v>0.005796309473754105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H10">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J10">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N10">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O10">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P10">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q10">
-        <v>8.599704222363043</v>
+        <v>9.674194842155556</v>
       </c>
       <c r="R10">
-        <v>8.599704222363043</v>
+        <v>87.06775357940002</v>
       </c>
       <c r="S10">
-        <v>0.007027231219583581</v>
+        <v>0.005411471740787564</v>
       </c>
       <c r="T10">
-        <v>0.007027231219583581</v>
+        <v>0.006553583762775914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H11">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J11">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.674741494122721</v>
+        <v>10.0078485</v>
       </c>
       <c r="N11">
-        <v>9.674741494122721</v>
+        <v>20.015697</v>
       </c>
       <c r="O11">
-        <v>0.2171083537640522</v>
+        <v>0.2106019794549903</v>
       </c>
       <c r="P11">
-        <v>0.2171083537640522</v>
+        <v>0.1510017415254648</v>
       </c>
       <c r="Q11">
-        <v>16.71372222927332</v>
+        <v>19.27524964898</v>
       </c>
       <c r="R11">
-        <v>16.71372222927332</v>
+        <v>115.65149789388</v>
       </c>
       <c r="S11">
-        <v>0.0136575849131616</v>
+        <v>0.01078203100867456</v>
       </c>
       <c r="T11">
-        <v>0.0136575849131616</v>
+        <v>0.008705080211433975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H12">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I12">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J12">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N12">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O12">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P12">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q12">
-        <v>50.06408436281883</v>
+        <v>103.663780761424</v>
       </c>
       <c r="R12">
-        <v>50.06408436281883</v>
+        <v>621.982684568544</v>
       </c>
       <c r="S12">
-        <v>0.04090976707075573</v>
+        <v>0.0579865951933474</v>
       </c>
       <c r="T12">
-        <v>0.04090976707075573</v>
+        <v>0.04681659345441758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H13">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I13">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J13">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N13">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O13">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P13">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q13">
-        <v>132.1944000506834</v>
+        <v>250.638090671488</v>
       </c>
       <c r="R13">
-        <v>132.1944000506834</v>
+        <v>1503.828544028928</v>
       </c>
       <c r="S13">
-        <v>0.1080223913602254</v>
+        <v>0.1401998788491942</v>
       </c>
       <c r="T13">
-        <v>0.1080223913602254</v>
+        <v>0.1131930700286116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H14">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I14">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J14">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N14">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O14">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P14">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q14">
-        <v>27.1405957412847</v>
+        <v>56.11982659053333</v>
       </c>
       <c r="R14">
-        <v>27.1405957412847</v>
+        <v>336.7189595432</v>
       </c>
       <c r="S14">
-        <v>0.02217788388759791</v>
+        <v>0.03139184817419935</v>
       </c>
       <c r="T14">
-        <v>0.02217788388759791</v>
+        <v>0.0253448126908286</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H15">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I15">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J15">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N15">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O15">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P15">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q15">
-        <v>34.85143809727179</v>
+        <v>63.45175080434666</v>
       </c>
       <c r="R15">
-        <v>34.85143809727179</v>
+        <v>380.71050482608</v>
       </c>
       <c r="S15">
-        <v>0.02847878339904536</v>
+        <v>0.03549311978760076</v>
       </c>
       <c r="T15">
-        <v>0.02847878339904536</v>
+        <v>0.0286560532479011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H16">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I16">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J16">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.674741494122721</v>
+        <v>10.0078485</v>
       </c>
       <c r="N16">
-        <v>9.674741494122721</v>
+        <v>20.015697</v>
       </c>
       <c r="O16">
-        <v>0.2171083537640522</v>
+        <v>0.2106019794549903</v>
       </c>
       <c r="P16">
-        <v>0.2171083537640522</v>
+        <v>0.1510017415254648</v>
       </c>
       <c r="Q16">
-        <v>67.73456860687877</v>
+        <v>126.423785893704</v>
       </c>
       <c r="R16">
-        <v>67.73456860687877</v>
+        <v>505.6951435748159</v>
       </c>
       <c r="S16">
-        <v>0.05534916816342458</v>
+        <v>0.07071790013428345</v>
       </c>
       <c r="T16">
-        <v>0.05534916816342458</v>
+        <v>0.03806363832304797</v>
       </c>
     </row>
   </sheetData>
